--- a/EDUTL1902/Data.xlsx
+++ b/EDUTL1902/Data.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20325"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21001"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Amarth\Documents\OSU Assignments\EDUTL 1902\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CBC0CA9-AF85-46A5-920A-414EFED99E49}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{278A5013-4BB9-46D6-AAA1-61A0F36A8D3C}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22500" windowHeight="11378" xr2:uid="{1712C8E5-5CAC-48D6-B69A-AEF51167DD2D}"/>
   </bookViews>
@@ -1671,8 +1671,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D580FDB1-7A73-48C1-B868-7C42379798D4}">
   <dimension ref="A1:K157"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A45" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+    <sheetView tabSelected="1" topLeftCell="A89" workbookViewId="0">
+      <selection activeCell="E123" sqref="E123"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
